--- a/product/Sequence & Series/Sequence & Series.xlsx
+++ b/product/Sequence & Series/Sequence & Series.xlsx
@@ -1,42 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LeahD\Desktop\Product test\Sequence &amp; Series\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LeahD\Desktop\treppenwitzism.github.io\product\Sequence &amp; Series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB85B345-D97D-4B5D-A24D-9A7A8E1FB9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F90F87E1-EC92-4076-9740-4CA8F421F271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{7DFE6506-15B8-4723-84E1-E4C448BFB8C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{9F202FC3-079F-49C5-B653-3C03347390DF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Book (2)(Sheet1)" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>question</t>
   </si>
@@ -53,245 +37,104 @@
     <t>option_d</t>
   </si>
   <si>
+    <t>1. Which term of the arithmetic progression 3, 8, 13, 18, …, is 78?</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>2. 72, 44, 58, 32, 34, 68, 94, 22, 67, 45, 58. Find the difference between the median and the mode in the following using set of data.</t>
+  </si>
+  <si>
+    <t>½</t>
+  </si>
+  <si>
+    <t>3. Given n = 5, r = 2 ( pair ). Find the number of possible combinations.</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>4. If a circle has a circumference of 31.4 cm, what is its radius? (Use ? ? 3.14)</t>
+  </si>
+  <si>
+    <t>3 cm</t>
+  </si>
+  <si>
+    <t>1 cm</t>
+  </si>
+  <si>
+    <t>5 cm</t>
+  </si>
+  <si>
+    <t>10 cm</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>5. | 14 | 36 | 40 | 14 | 21 |. Find the range of the data set.</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>6. What is the inverse of the function f(x) = 2??</t>
+  </si>
+  <si>
+    <t>f?¹ = Log?x</t>
+  </si>
+  <si>
+    <t>f?¹ = Log²</t>
+  </si>
+  <si>
+    <t>f?¹ = Log?²</t>
+  </si>
+  <si>
+    <t>f?¹ = Log2x</t>
+  </si>
+  <si>
+    <t>7. What is the value of cos(60°)?</t>
+  </si>
+  <si>
+    <t>8. What is the range of the rational function f ( x ) = 2 / x-3?</t>
+  </si>
+  <si>
+    <t>y ? 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y ? 3 </t>
+  </si>
+  <si>
+    <t>y = 3</t>
+  </si>
+  <si>
+    <t>y ?6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c </t>
+  </si>
+  <si>
+    <t>9. Find the 10th term of the arithmetic sequence : 8, 26, 44, 62, …,</t>
+  </si>
+  <si>
+    <t>10. What is the exact value of tan(60°)?</t>
+  </si>
+  <si>
+    <t>1 / ?3</t>
+  </si>
+  <si>
+    <t>?3</t>
+  </si>
+  <si>
     <t>correct_answer</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>1. Find the 10th term of the arithmetic sequence : 8, 26, 44, 62, …,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Determine what sequence is present in 7, 33, 62, 94, 129, …, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arithmetic sequence </t>
-  </si>
-  <si>
-    <t>Geometric sequence</t>
-  </si>
-  <si>
-    <t>Harmonic Sequence</t>
-  </si>
-  <si>
-    <t>Logarithmic sequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. Determine the common ratio of the geometric sequence : 5, 15, 45, 135, …, </t>
-  </si>
-  <si>
-    <t>4. Find the sum of the first 8 terms of the geometric sequence : 4, 12, 36, …,</t>
-  </si>
-  <si>
-    <t>25, 796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5. In the fibonacci sequence, what is the sum of the first 7 terms : 5, 8, 13, 21, …, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6. Find the general formula for the sequence : 4, 9, 16, 25, …, </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Broadway"/>
-        <family val="5"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>=(n+4)</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>= (n+4)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Broadway"/>
-        <family val="5"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>=(n+1)</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Broadway"/>
-        <family val="5"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>=(n+1)</t>
-    </r>
-  </si>
-  <si>
-    <t>7. Find the missing gterm : 2, 6, _, 18, 26.</t>
-  </si>
-  <si>
-    <t>8. Which of the following best defines an arithmetic sequence?</t>
-  </si>
-  <si>
-    <t>A sequence where each term is obtained by multiplying the previous term by a constant.</t>
-  </si>
-  <si>
-    <t>A sequence where the difference between consecutives terms is constant.</t>
-  </si>
-  <si>
-    <t>A sequence  where each term is the sum of all previous terms.</t>
-  </si>
-  <si>
-    <t>A sequence where each term is a power of a fixed number.</t>
-  </si>
-  <si>
-    <t>9.Which of the following sequence is an example of an arithmetyic sequence?</t>
-  </si>
-  <si>
-    <t>3, 6, 12, 24, 28, …,</t>
-  </si>
-  <si>
-    <t>1, 4, 9, 16, 25, …,</t>
-  </si>
-  <si>
-    <t>2, 4, 8, 12, 32, …,</t>
-  </si>
-  <si>
-    <t>5, 10, 15, 20, 25, …,</t>
-  </si>
-  <si>
-    <t>10. Which of the following best defines a geometric sequence?</t>
-  </si>
-  <si>
-    <t>A sequence where each term is obtained by adding a fixed number to the previous term.</t>
-  </si>
-  <si>
-    <t>A sequence where each term is found by subtracting a fixed number from the previous term.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,33 +146,131 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="5"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Broadway"/>
-      <family val="5"/>
-    </font>
-    <font>
-      <vertAlign val="subscript"/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -338,12 +279,179 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -352,57 +460,203 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF3F3F3F"/>
       </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -733,17 +987,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E8EE235-AE01-4E38-9EBA-8420DF4CD31F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F162C1BC-80AC-4B24-8E76-EA588A4B6991}">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="33.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="1" max="1" width="77.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -763,206 +1016,206 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1">
-        <v>80</v>
-      </c>
-      <c r="C2" s="1">
-        <v>170</v>
-      </c>
-      <c r="D2" s="1">
-        <v>260</v>
-      </c>
-      <c r="E2" s="1">
-        <v>250</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>7</v>
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>23</v>
+      </c>
+      <c r="E2">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>58</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
         <v>10</v>
       </c>
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2</v>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>2.5</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="6">
-        <v>26240</v>
-      </c>
-      <c r="C5" s="6">
-        <v>25690</v>
-      </c>
-      <c r="D5" s="6">
-        <v>26224</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>125</v>
+      </c>
+      <c r="C6">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>93</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="1">
-        <v>255</v>
-      </c>
-      <c r="C6" s="1">
-        <v>225</v>
-      </c>
-      <c r="D6" s="1">
-        <v>252</v>
-      </c>
-      <c r="E6" s="1">
-        <v>155</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>6</v>
+      <c r="F7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="1">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1">
-        <v>15</v>
-      </c>
-      <c r="D8" s="1">
-        <v>13</v>
-      </c>
-      <c r="E8" s="1">
-        <v>11</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
         <v>8</v>
+      </c>
+      <c r="D8">
+        <v>60</v>
+      </c>
+      <c r="E8">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" t="s">
         <v>30</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>8</v>
+      <c r="B10">
+        <v>170</v>
+      </c>
+      <c r="C10">
+        <v>260</v>
+      </c>
+      <c r="D10">
+        <v>360</v>
+      </c>
+      <c r="E10">
+        <v>80</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="5" t="s">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
         <v>6</v>
       </c>
     </row>

--- a/product/Sequence & Series/Sequence & Series.xlsx
+++ b/product/Sequence & Series/Sequence & Series.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LeahD\Desktop\treppenwitzism.github.io\product\Sequence &amp; Series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F90F87E1-EC92-4076-9740-4CA8F421F271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5A132D-EAA9-492B-87C5-349D58F0D49F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{9F202FC3-079F-49C5-B653-3C03347390DF}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>question</t>
   </si>
@@ -82,36 +82,15 @@
     <t>6. What is the inverse of the function f(x) = 2??</t>
   </si>
   <si>
-    <t>f?¹ = Log?x</t>
-  </si>
-  <si>
-    <t>f?¹ = Log²</t>
-  </si>
-  <si>
-    <t>f?¹ = Log?²</t>
-  </si>
-  <si>
-    <t>f?¹ = Log2x</t>
-  </si>
-  <si>
     <t>7. What is the value of cos(60°)?</t>
   </si>
   <si>
     <t>8. What is the range of the rational function f ( x ) = 2 / x-3?</t>
   </si>
   <si>
-    <t>y ? 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y ? 3 </t>
-  </si>
-  <si>
     <t>y = 3</t>
   </si>
   <si>
-    <t>y ?6</t>
-  </si>
-  <si>
     <t xml:space="preserve">c </t>
   </si>
   <si>
@@ -124,10 +103,28 @@
     <t>1 / ?3</t>
   </si>
   <si>
-    <t>?3</t>
-  </si>
-  <si>
     <t>correct_answer</t>
+  </si>
+  <si>
+    <t>f-¹ = Log2x</t>
+  </si>
+  <si>
+    <t>f-¹ = Log?²</t>
+  </si>
+  <si>
+    <t>f-¹ = Log²</t>
+  </si>
+  <si>
+    <t>f-¹ = Log?x</t>
+  </si>
+  <si>
+    <t>y -6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y - 3 </t>
+  </si>
+  <si>
+    <t>y - 2</t>
   </si>
 </sst>
 </file>
@@ -991,7 +988,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,7 +1013,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1070,13 +1067,13 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>2.5</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1107,10 +1104,10 @@
         <v>125</v>
       </c>
       <c r="C6">
+        <v>26</v>
+      </c>
+      <c r="D6">
         <v>21</v>
-      </c>
-      <c r="D6">
-        <v>25</v>
       </c>
       <c r="E6">
         <v>93</v>
@@ -1124,16 +1121,16 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
@@ -1141,7 +1138,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1161,27 +1158,27 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B10">
         <v>170</v>
@@ -1201,10 +1198,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1212,8 +1209,8 @@
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" t="s">
-        <v>34</v>
+      <c r="E11">
+        <v>-3</v>
       </c>
       <c r="F11" t="s">
         <v>6</v>

--- a/product/Sequence & Series/Sequence & Series.xlsx
+++ b/product/Sequence & Series/Sequence & Series.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LeahD\Desktop\treppenwitzism.github.io\product\Sequence &amp; Series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5A132D-EAA9-492B-87C5-349D58F0D49F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA18E66E-7BA2-42E5-8E05-DEFC15B4F4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{9F202FC3-079F-49C5-B653-3C03347390DF}"/>
+    <workbookView xWindow="-20610" yWindow="705" windowWidth="20730" windowHeight="11760" xr2:uid="{9F202FC3-079F-49C5-B653-3C03347390DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Book (2)(Sheet1)" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>question</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>y = 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c </t>
   </si>
   <si>
     <t>9. Find the 10th term of the arithmetic sequence : 8, 26, 44, 62, …,</t>
@@ -988,7 +985,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,7 +1010,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1121,16 +1118,16 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
@@ -1161,24 +1158,24 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <v>170</v>
@@ -1198,10 +1195,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
         <v>25</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
       </c>
       <c r="C11">
         <v>0</v>
